--- a/resources/data-imports/game_classes.xlsx
+++ b/resources/data-imports/game_classes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Prisoner</t>
+  </si>
+  <si>
+    <t>Alcoholic</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -921,6 +924,32 @@
         <v>20</v>
       </c>
     </row>
+    <row r="11" spans="1:19">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11">
+        <v>25</v>
+      </c>
+      <c r="S11">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data-imports/game_classes.xlsx
+++ b/resources/data-imports/game_classes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Alcoholic</t>
+  </si>
+  <si>
+    <t>Merchant</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -950,6 +953,32 @@
         <v>25</v>
       </c>
     </row>
+    <row r="12" spans="1:19">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12">
+        <v>50</v>
+      </c>
+      <c r="S12">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
